--- a/biology/Médecine/Cavité_du_bassin_osseux/Cavité_du_bassin_osseux.xlsx
+++ b/biology/Médecine/Cavité_du_bassin_osseux/Cavité_du_bassin_osseux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_du_bassin_osseux</t>
+          <t>Cavité_du_bassin_osseux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cavité du bassin osseux est la cavité anatomique délimitée par les os du bassin osseux. Elle est constituée de la partie inférieure de la cavité abdominale et de la cavité pelvienne. Elle constitue, avec la cavité abdominale, la cavité abdomino-pelvienne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_du_bassin_osseux</t>
+          <t>Cavité_du_bassin_osseux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En français le terme cavité pelvienne[1] désigne la cavité du petit bassin située en dessous de l'ouverture supérieure du pelvis.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En français le terme cavité pelvienne désigne la cavité du petit bassin située en dessous de l'ouverture supérieure du pelvis.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_du_bassin_osseux</t>
+          <t>Cavité_du_bassin_osseux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cavité du bassin osseux est limitée en haut par le bord supérieur de la ceinture pelvienne[2] et en bas par le diaphragme pelvien.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cavité du bassin osseux est limitée en haut par le bord supérieur de la ceinture pelvienne et en bas par le diaphragme pelvien.
 On lui distingue deux parties : une partie comprise en dessous de l'ouverture supérieure du pelvis constituant le petit bassin et une partie au-dessus de cette ouverture constituant le grand bassin.
 </t>
         </is>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cavit%C3%A9_du_bassin_osseux</t>
+          <t>Cavité_du_bassin_osseux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Dimensions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inclinaison du pelvis est l'angle formé par le plan de l'ouverture supérieure du pelvis et le plan horizontal.
 L'axe du pelvis (ou axe du bassin) est la ligne centrale courbe du canal pelvien qui passe par les centres des trois diamètres antéro-postérieurs du pelvis.
